--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Btla-Tnfrsf14.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Btla-Tnfrsf14.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Btla</t>
+  </si>
+  <si>
+    <t>Tnfrsf14</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Btla</t>
-  </si>
-  <si>
-    <t>Tnfrsf14</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -534,25 +534,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.310747</v>
+        <v>2.181848333333333</v>
       </c>
       <c r="H2">
-        <v>0.932241</v>
+        <v>6.545545000000001</v>
       </c>
       <c r="I2">
-        <v>0.03551873957835449</v>
+        <v>0.3851664139314479</v>
       </c>
       <c r="J2">
-        <v>0.03551873957835448</v>
+        <v>0.3851664139314478</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.853017333333334</v>
+        <v>2.862697666666667</v>
       </c>
       <c r="N2">
-        <v>11.559052</v>
+        <v>8.588093000000001</v>
       </c>
       <c r="O2">
-        <v>0.06452481780012838</v>
+        <v>0.06997451156315468</v>
       </c>
       <c r="P2">
-        <v>0.06452481780012839</v>
+        <v>0.06997451156315466</v>
       </c>
       <c r="Q2">
-        <v>1.197313577281333</v>
+        <v>6.24597213285389</v>
       </c>
       <c r="R2">
-        <v>10.775822195532</v>
+        <v>56.21374919568501</v>
       </c>
       <c r="S2">
-        <v>0.002291840199783532</v>
+        <v>0.02695183168538492</v>
       </c>
       <c r="T2">
-        <v>0.002291840199783532</v>
+        <v>0.02695183168538491</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.310747</v>
+        <v>2.181848333333333</v>
       </c>
       <c r="H3">
-        <v>0.932241</v>
+        <v>6.545545000000001</v>
       </c>
       <c r="I3">
-        <v>0.03551873957835449</v>
+        <v>0.3851664139314479</v>
       </c>
       <c r="J3">
-        <v>0.03551873957835448</v>
+        <v>0.3851664139314478</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.565863999999999</v>
       </c>
       <c r="O3">
-        <v>0.04223408598737599</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="P3">
-        <v>0.042234085987376</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="Q3">
-        <v>0.7836898468026665</v>
+        <v>5.502522586208888</v>
       </c>
       <c r="R3">
-        <v>7.053208621223999</v>
+        <v>49.52270327588</v>
       </c>
       <c r="S3">
-        <v>0.001500101501515438</v>
+        <v>0.02374379190846129</v>
       </c>
       <c r="T3">
-        <v>0.001500101501515438</v>
+        <v>0.02374379190846129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.310747</v>
+        <v>2.181848333333333</v>
       </c>
       <c r="H4">
-        <v>0.932241</v>
+        <v>6.545545000000001</v>
       </c>
       <c r="I4">
-        <v>0.03551873957835449</v>
+        <v>0.3851664139314479</v>
       </c>
       <c r="J4">
-        <v>0.03551873957835448</v>
+        <v>0.3851664139314478</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.84381733333333</v>
+        <v>17.93719066666667</v>
       </c>
       <c r="N4">
-        <v>53.53145199999999</v>
+        <v>53.811572</v>
       </c>
       <c r="O4">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="P4">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="Q4">
-        <v>5.544912704881332</v>
+        <v>39.13622956074889</v>
       </c>
       <c r="R4">
-        <v>49.904214343932</v>
+        <v>352.22606604674</v>
       </c>
       <c r="S4">
-        <v>0.01061380584206928</v>
+        <v>0.1688757249449874</v>
       </c>
       <c r="T4">
-        <v>0.01061380584206927</v>
+        <v>0.1688757249449874</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.310747</v>
+        <v>2.181848333333333</v>
       </c>
       <c r="H5">
-        <v>0.932241</v>
+        <v>6.545545000000001</v>
       </c>
       <c r="I5">
-        <v>0.03551873957835449</v>
+        <v>0.3851664139314479</v>
       </c>
       <c r="J5">
-        <v>0.03551873957835448</v>
+        <v>0.3851664139314478</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.149381666666667</v>
+        <v>0.5052413333333333</v>
       </c>
       <c r="N5">
-        <v>3.448145</v>
+        <v>1.515724</v>
       </c>
       <c r="O5">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="P5">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="Q5">
-        <v>0.3571669047716666</v>
+        <v>1.102359961064444</v>
       </c>
       <c r="R5">
-        <v>3.214502142945</v>
+        <v>9.921239649580002</v>
       </c>
       <c r="S5">
-        <v>0.0006836717514275899</v>
+        <v>0.004756764759009755</v>
       </c>
       <c r="T5">
-        <v>0.0006836717514275899</v>
+        <v>0.004756764759009755</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.310747</v>
+        <v>2.181848333333333</v>
       </c>
       <c r="H6">
-        <v>0.932241</v>
+        <v>6.545545000000001</v>
       </c>
       <c r="I6">
-        <v>0.03551873957835449</v>
+        <v>0.3851664139314479</v>
       </c>
       <c r="J6">
-        <v>0.03551873957835448</v>
+        <v>0.3851664139314478</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.697805</v>
+        <v>11.46238066666667</v>
       </c>
       <c r="N6">
-        <v>32.09341499999999</v>
+        <v>34.387142</v>
       </c>
       <c r="O6">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="P6">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="Q6">
-        <v>3.324310810334999</v>
+        <v>25.00917615359889</v>
       </c>
       <c r="R6">
-        <v>29.91879729301499</v>
+        <v>225.08258538239</v>
       </c>
       <c r="S6">
-        <v>0.006363236245094821</v>
+        <v>0.1079164447014524</v>
       </c>
       <c r="T6">
-        <v>0.006363236245094821</v>
+        <v>0.1079164447014524</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.310747</v>
+        <v>2.181848333333333</v>
       </c>
       <c r="H7">
-        <v>0.932241</v>
+        <v>6.545545000000001</v>
       </c>
       <c r="I7">
-        <v>0.03551873957835449</v>
+        <v>0.3851664139314479</v>
       </c>
       <c r="J7">
-        <v>0.03551873957835448</v>
+        <v>0.3851664139314478</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.64775066666667</v>
+        <v>5.621112333333333</v>
       </c>
       <c r="N7">
-        <v>70.943252</v>
+        <v>16.863337</v>
       </c>
       <c r="O7">
-        <v>0.3960186708606028</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="P7">
-        <v>0.3960186708606029</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="Q7">
-        <v>7.348467576414667</v>
+        <v>12.26441457596278</v>
       </c>
       <c r="R7">
-        <v>66.136208187732</v>
+        <v>110.379731183665</v>
       </c>
       <c r="S7">
-        <v>0.01406608403846383</v>
+        <v>0.0529218559321521</v>
       </c>
       <c r="T7">
-        <v>0.01406608403846383</v>
+        <v>0.05292185593215209</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.585088</v>
+        <v>0.08561600000000001</v>
       </c>
       <c r="H8">
-        <v>4.755264</v>
+        <v>0.256848</v>
       </c>
       <c r="I8">
-        <v>0.1811773818597598</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="J8">
-        <v>0.1811773818597597</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.853017333333334</v>
+        <v>2.862697666666667</v>
       </c>
       <c r="N8">
-        <v>11.559052</v>
+        <v>8.588093000000001</v>
       </c>
       <c r="O8">
-        <v>0.06452481780012838</v>
+        <v>0.06997451156315468</v>
       </c>
       <c r="P8">
-        <v>0.06452481780012839</v>
+        <v>0.06997451156315466</v>
       </c>
       <c r="Q8">
-        <v>6.107371538858668</v>
+        <v>0.2450927234293334</v>
       </c>
       <c r="R8">
-        <v>54.96634384972801</v>
+        <v>2.205834510864</v>
       </c>
       <c r="S8">
-        <v>0.01169043755400528</v>
+        <v>0.001057593227871437</v>
       </c>
       <c r="T8">
-        <v>0.01169043755400528</v>
+        <v>0.001057593227871437</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.585088</v>
+        <v>0.08561600000000001</v>
       </c>
       <c r="H9">
-        <v>4.755264</v>
+        <v>0.256848</v>
       </c>
       <c r="I9">
-        <v>0.1811773818597598</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="J9">
-        <v>0.1811773818597597</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>7.565863999999999</v>
       </c>
       <c r="O9">
-        <v>0.04223408598737599</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="P9">
-        <v>0.042234085987376</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="Q9">
-        <v>3.997520078677333</v>
+        <v>0.2159196707413333</v>
       </c>
       <c r="R9">
-        <v>35.977680708096</v>
+        <v>1.943277036672</v>
       </c>
       <c r="S9">
-        <v>0.007651861124432749</v>
+        <v>0.0009317093479770541</v>
       </c>
       <c r="T9">
-        <v>0.007651861124432749</v>
+        <v>0.0009317093479770539</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.585088</v>
+        <v>0.08561600000000001</v>
       </c>
       <c r="H10">
-        <v>4.755264</v>
+        <v>0.256848</v>
       </c>
       <c r="I10">
-        <v>0.1811773818597598</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="J10">
-        <v>0.1811773818597597</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.84381733333333</v>
+        <v>17.93719066666667</v>
       </c>
       <c r="N10">
-        <v>53.53145199999999</v>
+        <v>53.811572</v>
       </c>
       <c r="O10">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="P10">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="Q10">
-        <v>28.28402072925866</v>
+        <v>1.535710516117333</v>
       </c>
       <c r="R10">
-        <v>254.556186563328</v>
+        <v>13.821394645056</v>
       </c>
       <c r="S10">
-        <v>0.05413991534783572</v>
+        <v>0.006626704453283895</v>
       </c>
       <c r="T10">
-        <v>0.05413991534783571</v>
+        <v>0.006626704453283894</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.585088</v>
+        <v>0.08561600000000001</v>
       </c>
       <c r="H11">
-        <v>4.755264</v>
+        <v>0.256848</v>
       </c>
       <c r="I11">
-        <v>0.1811773818597598</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="J11">
-        <v>0.1811773818597597</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.149381666666667</v>
+        <v>0.5052413333333333</v>
       </c>
       <c r="N11">
-        <v>3.448145</v>
+        <v>1.515724</v>
       </c>
       <c r="O11">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="P11">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="Q11">
-        <v>1.821871087253333</v>
+        <v>0.04325674199466667</v>
       </c>
       <c r="R11">
-        <v>16.39683978528</v>
+        <v>0.389310677952</v>
       </c>
       <c r="S11">
-        <v>0.00348733821767179</v>
+        <v>0.0001866560408372623</v>
       </c>
       <c r="T11">
-        <v>0.00348733821767179</v>
+        <v>0.0001866560408372622</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.585088</v>
+        <v>0.08561600000000001</v>
       </c>
       <c r="H12">
-        <v>4.755264</v>
+        <v>0.256848</v>
       </c>
       <c r="I12">
-        <v>0.1811773818597598</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="J12">
-        <v>0.1811773818597597</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.697805</v>
+        <v>11.46238066666667</v>
       </c>
       <c r="N12">
-        <v>32.09341499999999</v>
+        <v>34.387142</v>
       </c>
       <c r="O12">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="P12">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="Q12">
-        <v>16.95696233184</v>
+        <v>0.9813631831573334</v>
       </c>
       <c r="R12">
-        <v>152.61266098656</v>
+        <v>8.832268648415999</v>
       </c>
       <c r="S12">
-        <v>0.03245820366170827</v>
+        <v>0.004234654713805902</v>
       </c>
       <c r="T12">
-        <v>0.03245820366170828</v>
+        <v>0.0042346547138059</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.585088</v>
+        <v>0.08561600000000001</v>
       </c>
       <c r="H13">
-        <v>4.755264</v>
+        <v>0.256848</v>
       </c>
       <c r="I13">
-        <v>0.1811773818597598</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="J13">
-        <v>0.1811773818597597</v>
+        <v>0.01511397799350009</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.64775066666667</v>
+        <v>5.621112333333333</v>
       </c>
       <c r="N13">
-        <v>70.943252</v>
+        <v>16.863337</v>
       </c>
       <c r="O13">
-        <v>0.3960186708606028</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="P13">
-        <v>0.3960186708606029</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="Q13">
-        <v>37.48376580872534</v>
+        <v>0.4812571535306667</v>
       </c>
       <c r="R13">
-        <v>337.353892278528</v>
+        <v>4.331314381776001</v>
       </c>
       <c r="S13">
-        <v>0.07174962595410596</v>
+        <v>0.002076660209724538</v>
       </c>
       <c r="T13">
-        <v>0.07174962595410596</v>
+        <v>0.002076660209724538</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.70248</v>
+        <v>3.198913333333333</v>
       </c>
       <c r="H14">
-        <v>8.10744</v>
+        <v>9.59674</v>
       </c>
       <c r="I14">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668147</v>
       </c>
       <c r="J14">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668146</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.853017333333334</v>
+        <v>2.862697666666667</v>
       </c>
       <c r="N14">
-        <v>11.559052</v>
+        <v>8.588093000000001</v>
       </c>
       <c r="O14">
-        <v>0.06452481780012838</v>
+        <v>0.06997451156315468</v>
       </c>
       <c r="P14">
-        <v>0.06452481780012839</v>
+        <v>0.06997451156315466</v>
       </c>
       <c r="Q14">
-        <v>10.41270228298667</v>
+        <v>9.157521735202224</v>
       </c>
       <c r="R14">
-        <v>93.71432054688002</v>
+        <v>82.41769561682001</v>
       </c>
       <c r="S14">
-        <v>0.0199314950847828</v>
+        <v>0.0395153835484136</v>
       </c>
       <c r="T14">
-        <v>0.0199314950847828</v>
+        <v>0.03951538354841359</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.70248</v>
+        <v>3.198913333333333</v>
       </c>
       <c r="H15">
-        <v>8.10744</v>
+        <v>9.59674</v>
       </c>
       <c r="I15">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668147</v>
       </c>
       <c r="J15">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668146</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.565863999999999</v>
       </c>
       <c r="O15">
-        <v>0.04223408598737599</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="P15">
-        <v>0.042234085987376</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="Q15">
-        <v>6.815532047573332</v>
+        <v>8.067514409262222</v>
       </c>
       <c r="R15">
-        <v>61.33978842816</v>
+        <v>72.60762968336</v>
       </c>
       <c r="S15">
-        <v>0.01304596442062334</v>
+        <v>0.03481192132352719</v>
       </c>
       <c r="T15">
-        <v>0.01304596442062334</v>
+        <v>0.03481192132352719</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.70248</v>
+        <v>3.198913333333333</v>
       </c>
       <c r="H16">
-        <v>8.10744</v>
+        <v>9.59674</v>
       </c>
       <c r="I16">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668147</v>
       </c>
       <c r="J16">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668146</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.84381733333333</v>
+        <v>17.93719066666667</v>
       </c>
       <c r="N16">
-        <v>53.53145199999999</v>
+        <v>53.811572</v>
       </c>
       <c r="O16">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="P16">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="Q16">
-        <v>48.22255946698666</v>
+        <v>57.37951838614222</v>
       </c>
       <c r="R16">
-        <v>434.00303520288</v>
+        <v>516.41566547528</v>
       </c>
       <c r="S16">
-        <v>0.09230530950282827</v>
+        <v>0.2475968654418476</v>
       </c>
       <c r="T16">
-        <v>0.09230530950282827</v>
+        <v>0.2475968654418476</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.70248</v>
+        <v>3.198913333333333</v>
       </c>
       <c r="H17">
-        <v>8.10744</v>
+        <v>9.59674</v>
       </c>
       <c r="I17">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668147</v>
       </c>
       <c r="J17">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668146</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.149381666666667</v>
+        <v>0.5052413333333333</v>
       </c>
       <c r="N17">
-        <v>3.448145</v>
+        <v>1.515724</v>
       </c>
       <c r="O17">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="P17">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="Q17">
-        <v>3.106180966533333</v>
+        <v>1.616223237751111</v>
       </c>
       <c r="R17">
-        <v>27.9556286988</v>
+        <v>14.54600913976</v>
       </c>
       <c r="S17">
-        <v>0.005945702564459296</v>
+        <v>0.006974122801597008</v>
       </c>
       <c r="T17">
-        <v>0.005945702564459298</v>
+        <v>0.006974122801597006</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.70248</v>
+        <v>3.198913333333333</v>
       </c>
       <c r="H18">
-        <v>8.10744</v>
+        <v>9.59674</v>
       </c>
       <c r="I18">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668147</v>
       </c>
       <c r="J18">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668146</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.697805</v>
+        <v>11.46238066666667</v>
       </c>
       <c r="N18">
-        <v>32.09341499999999</v>
+        <v>34.387142</v>
       </c>
       <c r="O18">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="P18">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="Q18">
-        <v>28.91060405639999</v>
+        <v>36.66716234634222</v>
       </c>
       <c r="R18">
-        <v>260.1954365075999</v>
+        <v>330.00446111708</v>
       </c>
       <c r="S18">
-        <v>0.05533929108774614</v>
+        <v>0.1582215173105091</v>
       </c>
       <c r="T18">
-        <v>0.05533929108774615</v>
+        <v>0.1582215173105091</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.70248</v>
+        <v>3.198913333333333</v>
       </c>
       <c r="H19">
-        <v>8.10744</v>
+        <v>9.59674</v>
       </c>
       <c r="I19">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668147</v>
       </c>
       <c r="J19">
-        <v>0.3088965728895579</v>
+        <v>0.5647111021668146</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.64775066666667</v>
+        <v>5.621112333333333</v>
       </c>
       <c r="N19">
-        <v>70.943252</v>
+        <v>16.863337</v>
       </c>
       <c r="O19">
-        <v>0.3960186708606028</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="P19">
-        <v>0.3960186708606029</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="Q19">
-        <v>63.90757322165334</v>
+        <v>17.98145119126444</v>
       </c>
       <c r="R19">
-        <v>575.1681589948801</v>
+        <v>161.83306072138</v>
       </c>
       <c r="S19">
-        <v>0.122328810229118</v>
+        <v>0.07759129174092017</v>
       </c>
       <c r="T19">
-        <v>0.122328810229118</v>
+        <v>0.07759129174092015</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,25 +1650,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>4.150503333333333</v>
+        <v>0.1983123333333333</v>
       </c>
       <c r="H20">
-        <v>12.45151</v>
+        <v>0.594937</v>
       </c>
       <c r="I20">
-        <v>0.474407305672328</v>
+        <v>0.03500850590823741</v>
       </c>
       <c r="J20">
-        <v>0.4744073056723279</v>
+        <v>0.0350085059082374</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.853017333333334</v>
+        <v>2.862697666666667</v>
       </c>
       <c r="N20">
-        <v>11.559052</v>
+        <v>8.588093000000001</v>
       </c>
       <c r="O20">
-        <v>0.06452481780012838</v>
+        <v>0.06997451156315468</v>
       </c>
       <c r="P20">
-        <v>0.06452481780012839</v>
+        <v>0.06997451156315466</v>
       </c>
       <c r="Q20">
-        <v>15.99196128539111</v>
+        <v>0.5677082539045556</v>
       </c>
       <c r="R20">
-        <v>143.92765156852</v>
+        <v>5.109374285141</v>
       </c>
       <c r="S20">
-        <v>0.03061104496155677</v>
+        <v>0.002449703101484727</v>
       </c>
       <c r="T20">
-        <v>0.03061104496155677</v>
+        <v>0.002449703101484727</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,25 +1712,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>4.150503333333333</v>
+        <v>0.1983123333333333</v>
       </c>
       <c r="H21">
-        <v>12.45151</v>
+        <v>0.594937</v>
       </c>
       <c r="I21">
-        <v>0.474407305672328</v>
+        <v>0.03500850590823741</v>
       </c>
       <c r="J21">
-        <v>0.4744073056723279</v>
+        <v>0.0350085059082374</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.565863999999999</v>
       </c>
       <c r="O21">
-        <v>0.04223408598737599</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="P21">
-        <v>0.042234085987376</v>
+        <v>0.06164554086142937</v>
       </c>
       <c r="Q21">
-        <v>10.46738125051555</v>
+        <v>0.5001347145075555</v>
       </c>
       <c r="R21">
-        <v>94.20643125463998</v>
+        <v>4.501212430568</v>
       </c>
       <c r="S21">
-        <v>0.02003615894080446</v>
+        <v>0.002158118281463841</v>
       </c>
       <c r="T21">
-        <v>0.02003615894080446</v>
+        <v>0.002158118281463841</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>4.150503333333333</v>
+        <v>0.1983123333333333</v>
       </c>
       <c r="H22">
-        <v>12.45151</v>
+        <v>0.594937</v>
       </c>
       <c r="I22">
-        <v>0.474407305672328</v>
+        <v>0.03500850590823741</v>
       </c>
       <c r="J22">
-        <v>0.4744073056723279</v>
+        <v>0.0350085059082374</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.84381733333333</v>
+        <v>17.93719066666667</v>
       </c>
       <c r="N22">
-        <v>53.53145199999999</v>
+        <v>53.811572</v>
       </c>
       <c r="O22">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="P22">
-        <v>0.2988227050865692</v>
+        <v>0.4384487297873381</v>
       </c>
       <c r="Q22">
-        <v>74.0608233213911</v>
+        <v>3.557166134551556</v>
       </c>
       <c r="R22">
-        <v>666.5474098925199</v>
+        <v>32.014495210964</v>
       </c>
       <c r="S22">
-        <v>0.1417636743938359</v>
+        <v>0.01534943494721921</v>
       </c>
       <c r="T22">
-        <v>0.1417636743938359</v>
+        <v>0.01534943494721921</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>4.150503333333333</v>
+        <v>0.1983123333333333</v>
       </c>
       <c r="H23">
-        <v>12.45151</v>
+        <v>0.594937</v>
       </c>
       <c r="I23">
-        <v>0.474407305672328</v>
+        <v>0.03500850590823741</v>
       </c>
       <c r="J23">
-        <v>0.4744073056723279</v>
+        <v>0.0350085059082374</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.149381666666667</v>
+        <v>0.5052413333333333</v>
       </c>
       <c r="N23">
-        <v>3.448145</v>
+        <v>1.515724</v>
       </c>
       <c r="O23">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="P23">
-        <v>0.01924819854374075</v>
+        <v>0.01234989497255689</v>
       </c>
       <c r="Q23">
-        <v>4.770512438772221</v>
+        <v>0.1001955877097778</v>
       </c>
       <c r="R23">
-        <v>42.93461194894999</v>
+        <v>0.9017602893880001</v>
       </c>
       <c r="S23">
-        <v>0.009131486010182077</v>
+        <v>0.0004323513711128695</v>
       </c>
       <c r="T23">
-        <v>0.009131486010182077</v>
+        <v>0.0004323513711128694</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>4.150503333333333</v>
+        <v>0.1983123333333333</v>
       </c>
       <c r="H24">
-        <v>12.45151</v>
+        <v>0.594937</v>
       </c>
       <c r="I24">
-        <v>0.474407305672328</v>
+        <v>0.03500850590823741</v>
       </c>
       <c r="J24">
-        <v>0.4744073056723279</v>
+        <v>0.0350085059082374</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.697805</v>
+        <v>11.46238066666667</v>
       </c>
       <c r="N24">
-        <v>32.09341499999999</v>
+        <v>34.387142</v>
       </c>
       <c r="O24">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="P24">
-        <v>0.1791515217215829</v>
+        <v>0.280181347070047</v>
       </c>
       <c r="Q24">
-        <v>44.40127531184999</v>
+        <v>2.273131455561555</v>
       </c>
       <c r="R24">
-        <v>399.6114778066499</v>
+        <v>20.458183100054</v>
       </c>
       <c r="S24">
-        <v>0.08499079072703369</v>
+        <v>0.009808730344279658</v>
       </c>
       <c r="T24">
-        <v>0.08499079072703368</v>
+        <v>0.009808730344279655</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>4.150503333333333</v>
+        <v>0.1983123333333333</v>
       </c>
       <c r="H25">
-        <v>12.45151</v>
+        <v>0.594937</v>
       </c>
       <c r="I25">
-        <v>0.474407305672328</v>
+        <v>0.03500850590823741</v>
       </c>
       <c r="J25">
-        <v>0.4744073056723279</v>
+        <v>0.0350085059082374</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.64775066666667</v>
+        <v>5.621112333333333</v>
       </c>
       <c r="N25">
-        <v>70.943252</v>
+        <v>16.863337</v>
       </c>
       <c r="O25">
-        <v>0.3960186708606028</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="P25">
-        <v>0.3960186708606029</v>
+        <v>0.1373999757454739</v>
       </c>
       <c r="Q25">
-        <v>98.15006796783555</v>
+        <v>1.114735902752111</v>
       </c>
       <c r="R25">
-        <v>883.35061171052</v>
+        <v>10.032623124769</v>
       </c>
       <c r="S25">
-        <v>0.187874150638915</v>
+        <v>0.0048101678626771</v>
       </c>
       <c r="T25">
-        <v>0.187874150638915</v>
+        <v>0.004810167862677099</v>
       </c>
     </row>
   </sheetData>
